--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,17 +489,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -508,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -572,27 +575,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -609,22 +612,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -641,22 +644,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -688,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -756,22 +759,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -783,27 +786,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -847,27 +850,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -884,22 +887,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -911,22 +914,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1046,7 +1049,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1083,22 +1086,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**HS161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1118,7 +1121,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1130,17 +1133,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1155,7 +1158,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1177,22 +1180,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1202,7 +1205,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1212,7 +1215,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1224,22 +1227,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**HS161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1259,7 +1262,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1271,22 +1274,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1296,7 +1299,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1306,7 +1309,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1318,17 +1321,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1343,7 +1346,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1385,7 +1388,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1488,7 +1491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1525,17 +1528,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1550,7 +1553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1572,17 +1575,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1619,22 +1622,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1644,7 +1647,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1654,7 +1657,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1666,17 +1669,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1713,22 +1716,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1748,7 +1751,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1827,7 +1830,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1848,6 +1851,1809 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>54.3%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 54.3%, B: 54.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 57.4/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C202]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C001]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C202]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>33.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1801,16 +1801,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2325,16 +2325,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C302, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C004, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C004, C202, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C203, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C204, L402, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C102, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C104, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C205, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, L404, L405, L408</t>
+          <t>C004, L404, L405</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L407]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C002]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L407]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4450,12 +4450,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4469,7 +4469,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -4509,12 +4509,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4528,7 +4528,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -5149,15 +5149,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -5317,22 +5321,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5350,7 +5354,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -5380,22 +5384,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5413,7 +5417,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -5443,22 +5447,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5476,7 +5480,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -5506,7 +5510,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5569,7 +5573,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5632,7 +5636,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5695,7 +5699,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5758,7 +5762,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5821,7 +5825,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5884,22 +5888,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5917,7 +5921,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5947,7 +5951,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6010,7 +6014,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6040,7 +6044,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -6060,25 +6064,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -6087,15 +6095,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -6115,25 +6127,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -6142,15 +6158,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -6170,25 +6190,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -6197,15 +6221,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -6225,25 +6253,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -6252,15 +6284,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6280,25 +6316,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6307,15 +6347,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -6335,25 +6379,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
@@ -6362,15 +6410,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -6395,22 +6447,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6428,12 +6480,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6458,22 +6510,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6491,12 +6543,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6521,22 +6573,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6554,12 +6606,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6636,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6622,7 +6674,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6699,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6685,7 +6737,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -6710,22 +6762,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6736,19 +6788,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6768,12 +6816,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6811,7 +6859,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6879,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6874,7 +6922,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -6894,12 +6942,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6937,7 +6985,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6957,27 +7005,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6995,12 +7043,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -7020,12 +7068,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7063,7 +7111,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -7083,25 +7131,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -7110,15 +7162,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -7138,25 +7194,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7165,15 +7225,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -7193,25 +7257,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7220,15 +7288,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -7248,27 +7320,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7279,15 +7351,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -7307,27 +7383,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7338,15 +7414,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -7366,27 +7446,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7404,12 +7484,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -7429,27 +7509,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7460,19 +7540,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7492,27 +7568,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7523,19 +7599,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -7550,7 +7622,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7560,7 +7632,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7570,12 +7642,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7583,22 +7655,18 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7681,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7623,7 +7691,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7633,7 +7701,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7646,22 +7714,18 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7740,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7686,7 +7750,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7696,7 +7760,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7709,22 +7773,18 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7799,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7749,22 +7809,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -7772,22 +7832,18 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -7802,12 +7858,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7817,17 +7873,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -7835,22 +7891,18 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -7865,32 +7917,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -7898,22 +7950,18 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -7928,32 +7976,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -7961,22 +8009,18 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -7991,17 +8035,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8011,12 +8055,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -8024,22 +8068,18 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -8054,7 +8094,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8064,17 +8104,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8087,22 +8127,18 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8153,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8127,22 +8163,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8150,22 +8186,18 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8212,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8190,22 +8222,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -8213,22 +8245,18 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8271,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -8258,12 +8286,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8276,22 +8304,18 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -8306,55 +8330,47 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -8369,55 +8385,51 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8432,32 +8444,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -8465,22 +8477,18 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8503,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8510,12 +8518,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8528,22 +8536,18 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -8558,12 +8562,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -8573,17 +8577,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -8601,12 +8605,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8625,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -8669,7 +8673,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -8684,12 +8688,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -8699,17 +8703,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -8727,12 +8731,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -8747,32 +8751,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -8790,12 +8794,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -8810,32 +8814,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -8853,12 +8857,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -8873,32 +8877,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -8916,12 +8920,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -8936,32 +8940,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -8979,12 +8983,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -8999,32 +9003,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -9042,12 +9046,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -9062,32 +9066,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9105,12 +9109,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -9125,32 +9129,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9168,12 +9172,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -9188,32 +9192,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9231,12 +9235,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -9251,34 +9255,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -9287,19 +9287,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -9314,17 +9310,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9362,7 +9358,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -9377,32 +9373,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9420,12 +9416,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -9445,27 +9441,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -9473,18 +9469,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -9532,18 +9532,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -9563,27 +9567,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -9591,18 +9595,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -9622,12 +9630,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9650,10 +9658,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9661,7 +9673,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9693,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9709,10 +9721,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9720,7 +9736,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -9740,12 +9756,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9768,10 +9784,14 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9779,7 +9799,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -9799,27 +9819,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -9827,18 +9847,22 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -9858,27 +9882,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -9886,18 +9910,22 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -9922,22 +9950,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -9945,18 +9973,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -9981,22 +10013,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10004,18 +10036,18 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10035,27 +10067,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10063,18 +10095,22 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -10094,27 +10130,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -10122,18 +10158,22 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -10153,42 +10193,50 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I97" t="b">
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -10208,27 +10256,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10236,18 +10284,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10319,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10277,17 +10329,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10295,18 +10347,22 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -10331,22 +10387,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -10354,18 +10410,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10445,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10428,7 +10488,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -10448,12 +10508,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10491,7 +10551,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -10511,12 +10571,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10554,7 +10614,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -10574,12 +10634,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10637,12 +10697,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10680,7 +10740,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -10700,27 +10760,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -10731,19 +10791,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10763,27 +10819,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -10794,3719 +10850,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
           <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,135 +480,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [L404]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -618,84 +618,148 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -790,11 +854,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -823,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,7 +954,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -925,7 +989,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -946,7 +1010,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -960,7 +1024,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -981,7 +1045,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +1059,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1016,7 +1080,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1030,7 +1094,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1051,7 +1115,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1065,7 +1129,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1086,7 +1150,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1100,7 +1164,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1121,7 +1185,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1135,7 +1199,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1143,41 +1207,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1261,16 +1290,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1291,16 +1320,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>26.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1325,16 +1354,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1359,16 +1388,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>33.75</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1393,16 +1422,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1427,16 +1456,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1529,16 +1558,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1767,16 +1796,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1801,16 +1830,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8.75</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2291,16 +2320,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2325,16 +2354,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2493,7 +2522,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C101, C104, C204, C302</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C102, C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -2522,12 +2551,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C203</t>
         </is>
       </c>
     </row>
@@ -2539,12 +2568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -2573,12 +2602,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C202, C203, C204</t>
         </is>
       </c>
     </row>
@@ -2590,12 +2619,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C204, C205</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C104, C205, C302</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2653,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C004, C202, C302</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2670,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C302</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2692,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, L404, L405</t>
+          <t>C001, C002, C004, C101, C204, C205</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,135 +2750,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [L405]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L407]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2859,84 +2888,148 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 (Lab) [L407]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS161 [C102]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -3098,7 +3191,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L404, C202, C004</t>
+          <t>L404, C205</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3238,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3285,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3332,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C101, C004</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3379,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3426,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C001, C002, L206</t>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3633,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L405, C004</t>
+          <t>L408, C101</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3680,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3727,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3774,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C101, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3821,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3868,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C001, C002, L206</t>
+          <t>C002, L206</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3909,24 +4002,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162, DS161, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -3952,7 +4045,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3960,42 +4053,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162, DS161, EC161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4003,42 +4096,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA162, MA161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4046,23 +4139,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HS161, DS161, CS161...</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4085,7 +4178,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -4093,7 +4186,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4105,7 +4198,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4120,11 +4213,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4136,19 +4229,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4171,7 +4264,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -4191,30 +4284,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -4222,19 +4315,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4253,11 +4346,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -4265,12 +4358,55 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4359,6 +4495,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4391,7 +4532,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4410,12 +4551,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4477,6 +4623,11 @@
           <t>CS161 (Lab)</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4536,6 +4687,11 @@
           <t>CS161 (Lab)</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4563,17 +4719,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4587,12 +4743,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4783,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4646,12 +4807,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4681,17 +4847,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4705,12 +4871,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4740,17 +4911,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4764,12 +4935,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4799,12 +4975,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4823,12 +4999,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4858,17 +5039,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4882,12 +5063,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4917,19 +5103,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -4941,12 +5123,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4981,14 +5168,10 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -5000,12 +5183,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5040,14 +5228,10 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -5059,12 +5243,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5122,6 +5311,11 @@
           <t>EC161</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5173,12 +5367,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5431,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5275,11 +5479,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -5291,12 +5491,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5326,17 +5531,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5354,12 +5559,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5389,17 +5599,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5417,12 +5627,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>DS151</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5667,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5480,12 +5695,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5515,17 +5735,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5543,12 +5763,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5578,17 +5803,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5606,12 +5831,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5641,17 +5871,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5669,12 +5899,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5704,17 +5939,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5732,12 +5967,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5803,6 +6043,11 @@
           <t>DE101</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5830,17 +6075,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5858,12 +6103,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5893,17 +6143,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5921,12 +6171,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5956,19 +6211,15 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5984,12 +6235,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6047,6 +6303,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6074,17 +6331,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6102,12 +6359,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6137,17 +6399,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6165,12 +6427,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>DS151</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6200,17 +6467,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6228,12 +6495,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6263,19 +6535,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -6291,12 +6559,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6326,17 +6599,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6354,12 +6627,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6389,17 +6667,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6417,12 +6695,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6452,17 +6735,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6480,12 +6763,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6515,17 +6803,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6543,12 +6831,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6578,17 +6871,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6606,12 +6899,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6641,17 +6939,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6669,12 +6967,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6740,6 +7043,11 @@
           <t>CS161</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6799,6 +7107,7 @@
           <t>EC161 (Lab)</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6826,17 +7135,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6854,12 +7163,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6889,17 +7203,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6917,12 +7231,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6952,17 +7271,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6980,12 +7299,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7048,7 +7372,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7078,17 +7407,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7106,12 +7435,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7141,17 +7475,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7169,12 +7503,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7204,17 +7543,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7232,12 +7571,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7267,17 +7611,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7295,12 +7639,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7330,17 +7679,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7358,12 +7707,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7393,17 +7747,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7421,12 +7775,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7456,19 +7815,15 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -7484,12 +7839,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7504,32 +7864,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7537,18 +7897,23 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7563,32 +7928,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7596,18 +7961,23 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7632,7 +8002,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7661,12 +8031,17 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7691,7 +8066,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7701,12 +8076,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7720,12 +8095,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7745,12 +8125,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7760,12 +8140,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -7779,12 +8159,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7804,27 +8189,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -7838,12 +8223,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7868,7 +8258,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7902,7 +8292,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7927,22 +8322,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -7956,12 +8351,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7981,27 +8381,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -8015,12 +8415,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8040,22 +8445,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8074,12 +8479,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8104,7 +8514,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8114,7 +8524,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8133,12 +8543,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8158,27 +8573,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8192,12 +8607,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8217,12 +8637,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -8232,7 +8652,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8251,12 +8671,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8281,22 +8706,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -8310,12 +8735,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8340,20 +8770,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
@@ -8365,12 +8799,17 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8390,31 +8829,31 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -8424,12 +8863,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8449,27 +8893,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -8477,18 +8921,27 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8961,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8518,17 +8971,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -8536,18 +8989,27 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8577,17 +9039,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -8605,12 +9067,17 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8640,17 +9107,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -8668,12 +9135,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8703,17 +9175,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -8731,12 +9203,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8766,17 +9243,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -8794,12 +9271,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8829,17 +9311,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -8857,12 +9339,17 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8892,17 +9379,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -8920,12 +9407,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8955,17 +9447,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -8983,12 +9475,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9018,19 +9515,15 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -9046,12 +9539,17 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9081,17 +9579,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9109,12 +9607,17 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9139,22 +9642,22 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9165,21 +9668,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9197,7 +9697,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9240,7 +9740,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9260,25 +9765,29 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -9287,15 +9796,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9325,17 +9843,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -9353,12 +9871,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9388,17 +9911,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9416,12 +9939,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9451,17 +9979,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -9479,12 +10007,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9514,17 +10047,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -9542,12 +10075,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9577,17 +10115,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -9605,12 +10143,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9640,17 +10183,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -9668,12 +10211,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9703,17 +10251,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -9731,12 +10279,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9766,17 +10319,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -9794,12 +10347,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9829,17 +10387,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -9857,12 +10415,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9887,22 +10450,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -9913,21 +10476,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9945,27 +10505,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -9983,12 +10543,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10573,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10018,17 +10583,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10039,15 +10604,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10077,17 +10651,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10105,12 +10679,17 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10140,17 +10719,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -10168,12 +10747,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10203,17 +10787,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -10231,12 +10815,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10266,17 +10855,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10294,12 +10883,17 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10329,17 +10923,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10357,12 +10951,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10392,17 +10991,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -10420,12 +11019,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10455,17 +11059,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -10483,12 +11087,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10518,19 +11127,15 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="b">
         <v>0</v>
       </c>
@@ -10546,12 +11151,17 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10581,17 +11191,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -10609,256 +11219,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
           <t>CS161</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>DS161</t>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11782,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11475,12 +11846,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9/36</t>
+          <t>10/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 27.8%</t>
         </is>
       </c>
     </row>
@@ -11497,12 +11868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 54.3%, B: 54.3%</t>
+          <t>A: 42.2%, B: 42.2%</t>
         </is>
       </c>
     </row>
@@ -11524,7 +11895,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 57.4/100</t>
+          <t>Score: 53.8/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2354,16 +2354,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2388,16 +2388,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003, C101, C104, C204, C302</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C102, C104, C202, C203</t>
+          <t>C003, C101, C202</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C004, C203</t>
+          <t>C002, C101, C104</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C104, C202, C203</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202, C203, C204</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C204, C205</t>
+          <t>C104, C203, C204</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C104, C205, C302</t>
+          <t>C202, C204, C205</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C202, C302</t>
+          <t>C102, C203, C205</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C003, C302</t>
+          <t>C003, C204</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C101, C204, C205</t>
+          <t>C101, C102, C202, C205</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L407]</t>
+          <t>CS161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L407]</t>
+          <t>CS161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4615,7 +4615,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -4679,7 +4679,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -5599,19 +5599,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -5627,7 +5623,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -5677,7 +5673,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5695,7 +5691,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -5735,17 +5731,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5763,7 +5759,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -5803,17 +5799,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5831,7 +5827,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5881,7 +5877,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5899,7 +5895,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5949,7 +5945,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5967,7 +5963,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -6007,17 +6003,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -6035,7 +6031,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -6075,12 +6071,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6103,7 +6099,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6153,7 +6149,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -6171,7 +6167,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6211,15 +6207,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6399,19 +6399,15 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -6427,7 +6423,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -6495,7 +6491,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6535,15 +6531,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6599,17 +6599,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -7007,17 +7007,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -7203,19 +7203,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -7231,7 +7227,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -7299,7 +7295,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7339,17 +7335,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -7367,7 +7363,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -7407,17 +7403,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7435,7 +7431,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -7503,7 +7499,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -7553,7 +7549,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7571,7 +7567,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7639,7 +7635,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7679,17 +7675,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7707,7 +7703,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7747,17 +7743,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7775,7 +7771,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -7815,15 +7811,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -7967,7 +7967,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -8031,7 +8031,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -8971,19 +8971,15 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="b">
         <v>0</v>
       </c>
@@ -8999,7 +8995,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -9044,7 +9040,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -9067,7 +9063,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -9117,7 +9113,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -9135,7 +9131,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -9243,17 +9239,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -9271,7 +9267,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -9321,7 +9317,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -9339,7 +9335,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -9389,7 +9385,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -9407,7 +9403,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -9475,7 +9471,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9520,10 +9516,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9655,11 +9655,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -9671,7 +9667,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9707,17 +9703,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9735,7 +9731,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9775,19 +9771,15 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -9803,7 +9795,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -9843,12 +9835,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9871,7 +9863,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -9921,7 +9913,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9939,7 +9931,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -10007,7 +9999,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -10047,17 +10039,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -10075,7 +10067,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -10143,7 +10135,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -10211,7 +10203,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10279,7 +10271,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10387,12 +10379,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10415,7 +10407,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -10479,7 +10471,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -10525,7 +10517,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -10543,7 +10535,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -10583,19 +10575,15 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -10611,7 +10599,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -10656,7 +10644,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -10679,7 +10667,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -10747,7 +10735,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -10855,17 +10843,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10883,7 +10871,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -10933,7 +10921,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10951,7 +10939,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -11001,7 +10989,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -11019,7 +11007,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -11132,10 +11120,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I102" t="b">
         <v>0</v>
       </c>
@@ -11151,7 +11143,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -11201,7 +11193,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -11219,7 +11211,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -854,11 +854,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1185,28 +1185,98 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>DE101</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1290,16 +1360,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.75</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1320,16 +1390,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1388,16 +1458,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>37.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1422,16 +1492,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1456,16 +1526,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1592,16 +1662,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1694,16 +1764,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1728,16 +1798,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1796,16 +1866,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1864,16 +1934,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1932,16 +2002,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2286,16 +2356,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2388,16 +2458,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2484,7 +2554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,7 +2592,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2609,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C101, C202</t>
+          <t>C205, C302</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2621,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101, C104</t>
+          <t>C303, L403</t>
         </is>
       </c>
     </row>
@@ -2568,12 +2638,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C304</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2655,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C002, C305</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2672,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2689,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C203, C204</t>
+          <t>C202, L402</t>
         </is>
       </c>
     </row>
@@ -2636,12 +2706,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C204, C205</t>
+          <t>C203, L404</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2723,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C203, C205</t>
+          <t>C204, L405</t>
         </is>
       </c>
     </row>
@@ -2670,29 +2740,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C204</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C101, C102, C202, C205</t>
+          <t>C102, L406</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2845,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2802,12 +2855,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
     </row>
@@ -2819,22 +2872,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2883,17 +2936,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2915,7 +2968,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2947,17 +3000,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3156,17 +3209,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3186,12 +3239,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L404, C205</t>
+          <t>C004, L207</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3291,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3385,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3432,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3479,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L105, C001</t>
+          <t>C004, L105</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3496,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3468,7 +3521,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3598,17 +3651,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3628,12 +3681,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L408, C101</t>
+          <t>C004, L207, C001</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3733,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3780,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C001</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3827,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004, C001</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3874,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004, C001</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3921,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C002, L206</t>
+          <t>C004, L105, C001</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3938,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3910,7 +3963,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3930,7 +3983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4006,15 +4059,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA162, DS161, EC161</t>
+          <t>DS161, EC161, CS161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4026,26 +4079,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4053,46 +4106,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA162, DS161, EC161</t>
+          <t>DS161, EC161, CS161...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -4100,19 +4153,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4127,58 +4180,58 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS161, HS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -4186,42 +4239,42 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -4229,184 +4282,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4457,47 +4338,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -4527,42 +4418,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4591,42 +4490,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4655,42 +4562,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4719,42 +4634,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4783,42 +4706,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4847,42 +4778,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4911,42 +4850,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4975,42 +4922,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5039,42 +4994,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5103,38 +5066,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5163,38 +5138,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5223,38 +5210,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5283,38 +5282,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5343,42 +5354,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5407,42 +5426,50 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5471,38 +5498,50 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5531,46 +5570,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5599,42 +5646,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5663,46 +5722,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5731,46 +5798,50 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5799,46 +5870,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5867,46 +5946,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5935,46 +6022,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6003,46 +6098,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6071,46 +6174,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6139,46 +6250,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6197,7 +6316,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6207,46 +6326,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6265,45 +6392,65 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6331,46 +6478,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6399,42 +6554,50 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6463,46 +6626,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6531,46 +6702,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6599,46 +6778,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6667,46 +6854,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6735,46 +6930,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6803,46 +7006,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6861,56 +7072,64 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6929,56 +7148,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6997,56 +7224,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7065,7 +7300,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7075,39 +7310,51 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -7135,46 +7382,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>C002</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7203,42 +7458,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7267,46 +7534,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7335,46 +7610,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>C203</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7403,46 +7686,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7471,46 +7762,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>C102</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7524,61 +7823,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7592,61 +7891,65 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7660,12 +7963,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -7675,46 +7978,50 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7728,61 +8035,65 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7796,61 +8107,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7869,7 +8180,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7879,42 +8190,50 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7933,7 +8252,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7943,42 +8262,46 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -7997,52 +8320,56 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8061,52 +8388,56 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -8125,52 +8456,56 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -8189,52 +8524,56 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -8253,52 +8592,56 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8317,52 +8660,56 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -8381,52 +8728,60 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -8445,52 +8800,60 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -8509,52 +8872,56 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -8573,7 +8940,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -8583,42 +8950,54 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -8637,52 +9016,64 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -8701,52 +9092,64 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -8765,52 +9168,64 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -8829,7 +9244,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -8839,42 +9254,54 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -8903,46 +9330,54 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -8971,42 +9406,54 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -9035,46 +9482,54 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -9103,46 +9558,54 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -9171,46 +9634,54 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -9229,7 +9700,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9239,46 +9710,54 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -9297,7 +9776,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9307,46 +9786,54 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -9365,7 +9852,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9375,46 +9862,54 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -9433,7 +9928,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -9443,46 +9938,54 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -9501,7 +10004,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -9511,46 +10014,54 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -9569,7 +10080,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -9579,46 +10090,54 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -9637,45 +10156,65 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9703,46 +10242,54 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -9771,42 +10318,54 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9835,46 +10394,54 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9893,56 +10460,64 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9961,56 +10536,64 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>C302</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -10029,56 +10612,64 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -10097,56 +10688,64 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -10165,56 +10764,64 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -10233,56 +10840,64 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -10301,56 +10916,64 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -10369,56 +10992,64 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -10437,7 +11068,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10447,39 +11078,55 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -10507,722 +11154,54 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="P93" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11309,17 +11288,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11334,27 +11313,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[OK] FULLY COMPLIANT</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Meets requirements</t>
+          <t>Check scheduling</t>
         </is>
       </c>
     </row>
@@ -11774,7 +11753,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11799,7 +11778,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 2</t>
+          <t>Core: 6, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -11816,12 +11795,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3/7 courses fully compliant</t>
+          <t>2/7 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -11838,12 +11817,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 27.8%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 53.8/100</t>
+          <t>Score: 48.1/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1458,16 +1458,16 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>37.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1628,16 +1628,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1696,16 +1696,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1798,16 +1798,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1900,16 +1900,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1934,16 +1934,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2002,16 +2002,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C102, C302</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C204, C303</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C303, L403</t>
+          <t>C205, C304</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C304</t>
+          <t>C004, C305</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C305</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C002, L402</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, L402</t>
+          <t>C104, L403</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, L404</t>
+          <t>C202, L404</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204, L405</t>
+          <t>C203, L405</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, L406</t>
+          <t>C101, L406</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3094,6 +3094,702 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B1**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS161**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>L106, C203, C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**HS161**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**MA161**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**DS161**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C004, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 40.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 3 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B1**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS161**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C102, L107, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**HS161**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**MA161**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**DS161**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 40.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 3 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3110,1184 +3806,391 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B1**</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA161, DS161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA161, DS161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L207</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**HS161**</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>HS161, CS161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, L105</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Total Courses: 7</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LTPSC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lect/Tuts/Week</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Labs/Week</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Combined Class</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B1**</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>**CS161**</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Manjunath</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C004, L207, C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>**HS161**</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>English Language</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>**MA161**</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C004, C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>**DS161**</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C004, C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>**MA162**</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C004, C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**EC161**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C004, L105, C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DS161, EC161, CS161...</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DS161, EC161, CS161...</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4423,17 +4326,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4447,7 +4350,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4519,7 +4422,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4591,7 +4494,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4711,17 +4614,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4735,7 +4638,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5071,17 +4974,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -5095,7 +4998,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5128,32 +5031,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -5161,18 +5064,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -5200,7 +5107,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5210,22 +5117,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -5233,18 +5140,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -5272,32 +5183,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -5305,18 +5216,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -5344,32 +5259,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5377,23 +5292,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -5416,56 +5335,56 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -5488,7 +5407,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -5498,22 +5417,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5521,18 +5440,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -5570,7 +5493,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5608,7 +5531,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -5646,7 +5569,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5661,7 +5584,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5679,12 +5602,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -5722,7 +5645,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5732,7 +5655,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5755,12 +5678,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5798,20 +5721,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -5827,12 +5754,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5860,7 +5787,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5870,17 +5797,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5903,12 +5830,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5936,7 +5863,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5946,7 +5873,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5961,7 +5888,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5979,12 +5906,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -6012,7 +5939,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6022,7 +5949,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6037,7 +5964,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -6055,12 +5982,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6088,7 +6015,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6098,22 +6025,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6131,12 +6058,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6164,7 +6091,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6174,24 +6101,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -6207,12 +6130,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6240,7 +6163,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6250,17 +6173,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6283,12 +6206,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6326,7 +6249,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6364,7 +6287,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6402,7 +6325,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6417,7 +6340,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6435,12 +6358,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6478,7 +6401,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -6488,7 +6411,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6511,12 +6434,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6554,20 +6477,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -6583,12 +6510,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6616,27 +6543,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6659,17 +6586,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -6692,17 +6619,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6717,7 +6644,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6735,17 +6662,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -6768,17 +6695,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6793,7 +6720,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6811,17 +6738,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -6844,32 +6771,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6887,17 +6814,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -6920,34 +6847,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -6963,17 +6886,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -6996,27 +6919,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7039,17 +6962,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -7082,7 +7005,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -7120,7 +7043,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7158,7 +7081,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -7173,7 +7096,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7191,12 +7114,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -7234,7 +7157,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -7244,7 +7167,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7267,12 +7190,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -7310,20 +7233,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -7339,12 +7266,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -7367,37 +7294,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7405,27 +7332,23 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -7443,37 +7366,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7481,27 +7404,23 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -7519,12 +7438,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -7534,22 +7453,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7557,27 +7476,23 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P44" t="b">
@@ -7595,22 +7510,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7633,14 +7548,10 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>C203</t>
@@ -7648,12 +7559,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P45" t="b">
@@ -7671,22 +7582,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7701,7 +7612,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7709,27 +7620,23 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -7747,22 +7654,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7777,7 +7684,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7785,27 +7692,23 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -7828,17 +7731,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7848,10 +7751,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7863,12 +7770,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -7896,32 +7803,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7935,17 +7842,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P49" t="b">
@@ -7968,32 +7875,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -8007,17 +7914,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P50" t="b">
@@ -8040,32 +7947,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -8079,12 +7986,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -8112,7 +8019,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -8122,37 +8029,45 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -8180,17 +8095,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -8213,18 +8128,22 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -8252,47 +8171,55 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -8320,47 +8247,55 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -8388,17 +8323,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8408,27 +8343,35 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -8456,47 +8399,55 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -8524,47 +8475,55 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -8592,7 +8551,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -8602,37 +8561,45 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -8660,47 +8627,55 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -8728,32 +8703,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8761,23 +8736,27 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P61" t="b">
@@ -8800,32 +8779,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -8833,23 +8812,27 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P62" t="b">
@@ -8872,7 +8855,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -8882,37 +8865,45 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8940,7 +8931,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -8950,22 +8941,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8983,12 +8974,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -9016,7 +9007,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -9026,7 +9017,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -9041,7 +9032,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9059,12 +9050,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -9092,7 +9083,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -9102,22 +9093,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -9135,12 +9126,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -9168,7 +9159,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -9178,7 +9169,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9188,7 +9179,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -9211,12 +9202,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -9244,7 +9235,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -9254,7 +9245,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9264,7 +9255,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -9287,12 +9278,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -9320,7 +9311,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9330,22 +9321,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -9363,12 +9354,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9396,7 +9387,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9406,7 +9397,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9439,12 +9430,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9472,7 +9463,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9482,7 +9473,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9515,12 +9506,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9548,17 +9539,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9568,12 +9559,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9591,17 +9582,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -9624,17 +9615,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9644,7 +9635,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -9667,17 +9658,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -9700,32 +9691,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9743,17 +9734,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -9776,17 +9767,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9801,7 +9792,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -9819,17 +9810,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -9852,32 +9843,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9895,17 +9886,17 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -9928,17 +9919,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -9948,7 +9939,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -9971,17 +9962,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P77" t="b">
@@ -10004,17 +9995,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10024,7 +10015,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -10047,17 +10038,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -10080,32 +10071,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -10123,17 +10114,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -10156,17 +10147,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10199,17 +10190,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -10232,17 +10223,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10275,932 +10266,20 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11215,7 +10294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11345,7 +10424,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11397,32 +10476,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3/0/2</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -11454,12 +10533,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11474,12 +10553,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -11511,22 +10590,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11541,7 +10620,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -11556,124 +10635,10 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[WARN] PARTIAL</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[OK] FULLY COMPLIANT</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Meets requirements</t>
         </is>
@@ -11753,7 +10718,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:04</t>
+          <t>2026-01-26 12:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11774,11 +10739,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 1</t>
+          <t>Core: 4, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -11795,12 +10760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2/7 courses fully compliant</t>
+          <t>2/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -11817,12 +10782,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -11839,12 +10804,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 42.2%, B: 42.2%</t>
+          <t>A: 28.9%, B: 28.9%</t>
         </is>
       </c>
     </row>
@@ -11866,7 +10831,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 48.1/100</t>
+          <t>Score: 48.7/100</t>
         </is>
       </c>
     </row>
@@ -11881,7 +10846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12835,150 +11800,6 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_pre_mid_timetable.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1798,16 +1798,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2002,16 +2002,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C205, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C305</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, L402</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, L403</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, L404</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203, L405</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, L406</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L106, C203, C202</t>
+          <t>L107, C202</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C102, L107, C204</t>
+          <t>C203, L106</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3872,11 +3872,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -3915,11 +3915,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -3932,14 +3932,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3958,31 +3958,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -4018,80 +4018,80 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HS161, CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -4099,96 +4099,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -4336,7 +4250,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4350,7 +4264,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4422,7 +4336,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4494,7 +4408,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4758,17 +4672,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4782,7 +4696,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4830,17 +4744,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4854,7 +4768,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4902,17 +4816,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4926,7 +4840,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5056,7 +4970,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -5074,7 +4988,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5150,7 +5064,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5226,7 +5140,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5274,17 +5188,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5302,7 +5216,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5350,15 +5264,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -5374,7 +5292,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5422,12 +5340,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5450,7 +5368,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5508,7 +5426,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5526,7 +5444,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5584,7 +5502,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5602,7 +5520,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5660,7 +5578,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5678,7 +5596,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5754,7 +5672,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5812,7 +5730,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5830,7 +5748,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5906,7 +5824,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5982,7 +5900,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6030,17 +5948,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6058,7 +5976,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6106,15 +6024,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -6130,7 +6052,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6178,12 +6100,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6206,7 +6128,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6264,7 +6186,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -6282,7 +6204,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6340,7 +6262,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6358,7 +6280,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6416,7 +6338,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6434,7 +6356,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6510,7 +6432,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6568,7 +6490,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6586,7 +6508,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6662,7 +6584,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6738,7 +6660,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6786,17 +6708,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6814,7 +6736,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6862,15 +6784,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -6886,7 +6812,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6934,12 +6860,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6962,7 +6888,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7020,7 +6946,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -7038,7 +6964,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7096,7 +7022,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7114,7 +7040,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7172,7 +7098,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -7190,7 +7116,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7266,7 +7192,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7338,7 +7264,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7410,7 +7336,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7482,7 +7408,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7612,7 +7538,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7626,7 +7552,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7746,17 +7672,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -7770,7 +7696,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7818,17 +7744,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7842,7 +7768,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7890,17 +7816,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7914,7 +7840,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8044,7 +7970,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -8062,7 +7988,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8272,7 +8198,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -8290,7 +8216,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8338,12 +8264,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -8366,7 +8292,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8419,12 +8345,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -8442,7 +8368,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8495,7 +8421,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -8518,7 +8444,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8571,7 +8497,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -8594,7 +8520,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8647,12 +8573,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -8670,7 +8596,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8723,12 +8649,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8746,7 +8672,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8804,7 +8730,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -8822,7 +8748,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9032,7 +8958,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9050,7 +8976,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9098,12 +9024,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -9126,7 +9052,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9179,12 +9105,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -9202,7 +9128,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -9255,7 +9181,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -9278,7 +9204,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9331,7 +9257,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -9354,7 +9280,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9407,12 +9333,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9430,7 +9356,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9483,12 +9409,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9506,7 +9432,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9564,7 +9490,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9582,7 +9508,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9792,7 +9718,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -9810,7 +9736,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9858,12 +9784,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9886,7 +9812,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9939,12 +9865,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9962,7 +9888,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -10015,7 +9941,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -10038,7 +9964,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -10091,7 +10017,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -10114,7 +10040,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -10167,12 +10093,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -10190,7 +10116,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -10243,12 +10169,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -10266,7 +10192,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10718,7 +10644,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:45</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10782,12 +10708,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
